--- a/MinicursoExcel.xlsx
+++ b/MinicursoExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobeneli/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F25058-6A07-7E44-A608-B3CD987E686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C78F2E4-A89E-0644-8BDA-E277F688B0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BÁSICO" sheetId="1" r:id="rId1"/>
@@ -34,28 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -322,7 +300,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,6 +797,15 @@
     <xf numFmtId="165" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -843,14 +836,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1589,6 +1574,174 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>444501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1625600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F959FD1D-5C6E-D22B-E307-0B60CCF8A4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="2778" t="36020" r="2778" b="33479"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2082800" y="444501"/>
+          <a:ext cx="7340600" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1178001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E33B1A-28DE-B12F-12F1-B4B0BB6AB1B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="1590"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1765300" y="584200"/>
+          <a:ext cx="6286500" cy="1165301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1172251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A975BEB4-C245-8A14-C99A-0F8341054575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="988"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4660900" y="0"/>
+          <a:ext cx="6362700" cy="1172251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1651,71 +1804,114 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1150662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707E44C7-D9D8-740E-084A-886C7075C1D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="1144"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2844800" y="0"/>
+          <a:ext cx="6235700" cy="1150662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1172737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC7AA77-1DA5-2978-5524-E5F8868A958C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="1144"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080000" y="203201"/>
+          <a:ext cx="6286500" cy="1160036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1921,8 +2117,8 @@
   </sheetPr>
   <dimension ref="B1:P1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1942,17 +2138,15 @@
   <sheetData>
     <row r="1" spans="2:16" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:16" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="2:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="32"/>
@@ -1963,7 +2157,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
-      <c r="J3" s="55"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="2:16" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="32"/>
@@ -1975,12 +2169,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="36"/>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="60"/>
+      <c r="H4" s="65"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="55"/>
+      <c r="J4" s="60"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1998,10 +2192,10 @@
         <v>3500</v>
       </c>
       <c r="F5" s="36"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="55"/>
+      <c r="J5" s="60"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2024,7 +2218,7 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="55"/>
+      <c r="J6" s="60"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2047,7 +2241,7 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="55"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -2070,7 +2264,7 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="55"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -2093,7 +2287,7 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="55"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -2110,7 +2304,7 @@
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="55"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -2127,7 +2321,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="55"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2138,15 +2332,15 @@
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="32"/>
       <c r="C12" s="38"/>
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="66"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="55"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -2167,7 +2361,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
-      <c r="J13" s="55"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -2188,7 +2382,7 @@
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="55"/>
+      <c r="J14" s="60"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2209,7 +2403,7 @@
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="55"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2230,7 +2424,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="55"/>
+      <c r="J16" s="60"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2247,7 +2441,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="55"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2258,15 +2452,15 @@
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="32"/>
       <c r="C18" s="38"/>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="55"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2277,13 +2471,13 @@
     <row r="19" spans="2:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="32"/>
       <c r="C19" s="38"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="55"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2300,7 +2494,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="38"/>
-      <c r="J20" s="55"/>
+      <c r="J20" s="60"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2309,14 +2503,14 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="32"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="55"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="60"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2325,14 +2519,14 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="56"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="61"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2346,10 +2540,10 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3345,6 +3539,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3356,7 +3551,7 @@
   <dimension ref="B1:N1002"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3372,57 +3567,56 @@
   <sheetData>
     <row r="1" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="68"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
-      <c r="I3" s="55"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="68"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="35"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="60"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="65"/>
       <c r="H4" s="36"/>
-      <c r="I4" s="55"/>
+      <c r="I4" s="60"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="68"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="35"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="62"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="67"/>
       <c r="H5" s="36"/>
-      <c r="I5" s="55"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="68"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="35"/>
       <c r="D6" s="13" t="s">
         <v>18</v>
@@ -3437,13 +3631,13 @@
         <v>21</v>
       </c>
       <c r="H6" s="36"/>
-      <c r="I6" s="55"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="68"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="35"/>
       <c r="D7" s="14" t="s">
         <v>22</v>
@@ -3458,13 +3652,13 @@
         <v>24</v>
       </c>
       <c r="H7" s="36"/>
-      <c r="I7" s="55"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="68"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="35"/>
       <c r="D8" s="14" t="s">
         <v>25</v>
@@ -3479,13 +3673,13 @@
         <v>26</v>
       </c>
       <c r="H8" s="36"/>
-      <c r="I8" s="55"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="68"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="35"/>
       <c r="D9" s="14" t="s">
         <v>27</v>
@@ -3500,13 +3694,13 @@
         <v>23</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="68"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="35"/>
       <c r="D10" s="14" t="s">
         <v>28</v>
@@ -3521,54 +3715,54 @@
         <v>26</v>
       </c>
       <c r="H10" s="36"/>
-      <c r="I10" s="55"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="68"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
-      <c r="I11" s="55"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="68"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="35"/>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="36"/>
-      <c r="I12" s="55"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="68"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="35"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="55"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="68"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="35"/>
       <c r="D14" s="31" t="s">
         <v>18</v>
@@ -3583,13 +3777,13 @@
         <v>21</v>
       </c>
       <c r="H14" s="36"/>
-      <c r="I14" s="55"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="68"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="35"/>
       <c r="D15" s="14" t="s">
         <v>22</v>
@@ -3600,13 +3794,13 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="55"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="68"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="35"/>
       <c r="D16" s="14" t="s">
         <v>25</v>
@@ -3617,13 +3811,13 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="36"/>
-      <c r="I16" s="55"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="35"/>
       <c r="D17" s="14" t="s">
         <v>27</v>
@@ -3634,13 +3828,13 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="55"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="68"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="35"/>
       <c r="D18" s="14" t="s">
         <v>28</v>
@@ -3651,111 +3845,111 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="36"/>
-      <c r="I18" s="55"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="68"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="36"/>
       <c r="H19" s="36"/>
-      <c r="I19" s="55"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="68"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
-      <c r="I20" s="55"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="68"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="55"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="9"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="68"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="55"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="11"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="68"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="55"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="68"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="36"/>
       <c r="H24" s="36"/>
-      <c r="I24" s="55"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="68"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="55"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="60"/>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="69"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="56"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="61"/>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9648,6 +9842,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9659,7 +9854,7 @@
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9679,22 +9874,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
+      <c r="A2" s="86"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -9704,10 +9897,10 @@
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
-      <c r="K2" s="83"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="85"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="38"/>
       <c r="C3" s="17" t="s">
         <v>29</v>
@@ -9719,19 +9912,19 @@
         <v>31</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="60"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="83"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="85"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="38"/>
       <c r="C4" s="18" t="s">
         <v>32</v>
@@ -9743,17 +9936,17 @@
         <v>80</v>
       </c>
       <c r="F4" s="36"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="62"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="36"/>
-      <c r="K4" s="83"/>
+      <c r="K4" s="84"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="85"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="38"/>
       <c r="C5" s="21" t="s">
         <v>34</v>
@@ -9775,13 +9968,13 @@
         <v>31</v>
       </c>
       <c r="J5" s="36"/>
-      <c r="K5" s="83"/>
+      <c r="K5" s="84"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="85"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="38"/>
       <c r="C6" s="18" t="s">
         <v>36</v>
@@ -9799,13 +9992,13 @@
       <c r="H6" s="15"/>
       <c r="I6" s="24"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="83"/>
+      <c r="K6" s="84"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="85"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="38"/>
       <c r="C7" s="18" t="s">
         <v>38</v>
@@ -9823,13 +10016,13 @@
       <c r="H7" s="15"/>
       <c r="I7" s="24"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="83"/>
+      <c r="K7" s="84"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="85"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="38"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
@@ -9841,47 +10034,47 @@
       <c r="H8" s="15"/>
       <c r="I8" s="24"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="83"/>
+      <c r="K8" s="84"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="38"/>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="83"/>
+      <c r="K9" s="84"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="85"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
-      <c r="K10" s="83"/>
+      <c r="K10" s="84"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="38"/>
       <c r="C11" s="17" t="s">
         <v>29</v>
@@ -9897,13 +10090,13 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="83"/>
+      <c r="K11" s="84"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="85"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="38"/>
       <c r="C12" s="18" t="s">
         <v>36</v>
@@ -9919,13 +10112,13 @@
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="83"/>
+      <c r="K12" s="84"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="38"/>
       <c r="C13" s="18" t="s">
         <v>32</v>
@@ -9941,13 +10134,13 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
-      <c r="K13" s="83"/>
+      <c r="K13" s="84"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="38"/>
       <c r="C14" s="18" t="s">
         <v>38</v>
@@ -9963,13 +10156,13 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
-      <c r="K14" s="83"/>
+      <c r="K14" s="84"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="85"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="38"/>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
@@ -9979,13 +10172,13 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
-      <c r="K15" s="83"/>
+      <c r="K15" s="84"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="85"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="38"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -9995,63 +10188,63 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
-      <c r="K16" s="83"/>
+      <c r="K16" s="84"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="83"/>
+      <c r="K17" s="84"/>
       <c r="L17" s="26"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="38"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
       <c r="J18" s="37"/>
-      <c r="K18" s="83"/>
+      <c r="K18" s="84"/>
       <c r="L18" s="26"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="85"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
       <c r="J19" s="48"/>
-      <c r="K19" s="83"/>
+      <c r="K19" s="84"/>
       <c r="L19" s="26"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="85"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="38"/>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
@@ -10061,13 +10254,13 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
-      <c r="K20" s="83"/>
+      <c r="K20" s="84"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="85"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="38"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -10077,55 +10270,55 @@
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
-      <c r="K21" s="83"/>
+      <c r="K21" s="84"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="85"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="83"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="84"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="85"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="83"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="84"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="80"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -11120,6 +11313,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11130,8 +11324,8 @@
   </sheetPr>
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11146,26 +11340,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
+      <c r="A2" s="94"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -11179,10 +11371,10 @@
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
       <c r="N2" s="42"/>
-      <c r="O2" s="93"/>
+      <c r="O2" s="94"/>
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="93"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -11196,10 +11388,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
-      <c r="O3" s="93"/>
+      <c r="O3" s="94"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="93"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="42"/>
       <c r="C4" s="49" t="s">
         <v>40</v>
@@ -11217,10 +11409,10 @@
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
-      <c r="O4" s="93"/>
+      <c r="O4" s="94"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="93"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="42"/>
       <c r="C5" s="40" t="s">
         <v>42</v>
@@ -11238,10 +11430,10 @@
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
-      <c r="O5" s="93"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="93"/>
+      <c r="A6" s="94"/>
       <c r="B6" s="42"/>
       <c r="C6" s="40" t="s">
         <v>43</v>
@@ -11259,10 +11451,10 @@
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="93"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="93"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="42"/>
       <c r="C7" s="40" t="s">
         <v>44</v>
@@ -11280,10 +11472,10 @@
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
-      <c r="O7" s="93"/>
+      <c r="O7" s="94"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="93"/>
+      <c r="A8" s="94"/>
       <c r="B8" s="42"/>
       <c r="C8" s="40" t="s">
         <v>45</v>
@@ -11301,10 +11493,10 @@
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="93"/>
+      <c r="O8" s="94"/>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="93"/>
+      <c r="A9" s="94"/>
       <c r="B9" s="42"/>
       <c r="C9" s="40" t="s">
         <v>46</v>
@@ -11322,10 +11514,10 @@
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
-      <c r="O9" s="93"/>
+      <c r="O9" s="94"/>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="42"/>
       <c r="C10" s="40" t="s">
         <v>47</v>
@@ -11343,10 +11535,10 @@
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="93"/>
+      <c r="O10" s="94"/>
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="93"/>
+      <c r="A11" s="94"/>
       <c r="B11" s="42"/>
       <c r="C11" s="40" t="s">
         <v>48</v>
@@ -11364,10 +11556,10 @@
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="93"/>
+      <c r="O11" s="94"/>
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="93"/>
+      <c r="A12" s="94"/>
       <c r="B12" s="42"/>
       <c r="C12" s="40" t="s">
         <v>49</v>
@@ -11385,10 +11577,10 @@
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="93"/>
+      <c r="O12" s="94"/>
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="93"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="42"/>
       <c r="C13" s="40" t="s">
         <v>50</v>
@@ -11406,10 +11598,10 @@
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
-      <c r="O13" s="93"/>
+      <c r="O13" s="94"/>
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="93"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="42"/>
       <c r="C14" s="40" t="s">
         <v>51</v>
@@ -11427,10 +11619,10 @@
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
-      <c r="O14" s="93"/>
+      <c r="O14" s="94"/>
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="93"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="42"/>
       <c r="C15" s="40" t="s">
         <v>52</v>
@@ -11448,10 +11640,10 @@
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
       <c r="N15" s="42"/>
-      <c r="O15" s="93"/>
+      <c r="O15" s="94"/>
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="93"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="42"/>
       <c r="C16" s="40" t="s">
         <v>53</v>
@@ -11469,10 +11661,10 @@
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
-      <c r="O16" s="93"/>
+      <c r="O16" s="94"/>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="93"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -11486,10 +11678,10 @@
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="93"/>
+      <c r="O17" s="94"/>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="93"/>
+      <c r="A18" s="94"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -11503,10 +11695,10 @@
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
       <c r="N18" s="42"/>
-      <c r="O18" s="93"/>
+      <c r="O18" s="94"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="93"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
@@ -11520,10 +11712,10 @@
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="93"/>
+      <c r="O19" s="94"/>
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="93"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
@@ -11537,10 +11729,10 @@
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
-      <c r="O20" s="93"/>
+      <c r="O20" s="94"/>
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="93"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
@@ -11554,10 +11746,10 @@
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
-      <c r="O21" s="93"/>
+      <c r="O21" s="94"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="93"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
@@ -11571,10 +11763,10 @@
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
       <c r="N22" s="42"/>
-      <c r="O22" s="93"/>
+      <c r="O22" s="94"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="93"/>
+      <c r="A23" s="94"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
@@ -11588,10 +11780,10 @@
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
       <c r="N23" s="42"/>
-      <c r="O23" s="93"/>
+      <c r="O23" s="94"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="93"/>
+      <c r="A24" s="94"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
@@ -11605,10 +11797,10 @@
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
       <c r="N24" s="42"/>
-      <c r="O24" s="93"/>
+      <c r="O24" s="94"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="93"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -11622,10 +11814,10 @@
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
       <c r="N25" s="42"/>
-      <c r="O25" s="93"/>
+      <c r="O25" s="94"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="93"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
@@ -11639,10 +11831,10 @@
       <c r="L26" s="42"/>
       <c r="M26" s="42"/>
       <c r="N26" s="42"/>
-      <c r="O26" s="93"/>
+      <c r="O26" s="94"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="93"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
@@ -11656,10 +11848,10 @@
       <c r="L27" s="42"/>
       <c r="M27" s="42"/>
       <c r="N27" s="42"/>
-      <c r="O27" s="93"/>
+      <c r="O27" s="94"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="93"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -11673,10 +11865,10 @@
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
       <c r="N28" s="42"/>
-      <c r="O28" s="93"/>
+      <c r="O28" s="94"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -11690,10 +11882,10 @@
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
       <c r="N29" s="42"/>
-      <c r="O29" s="93"/>
+      <c r="O29" s="94"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
+      <c r="A30" s="94"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -11707,10 +11899,10 @@
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
       <c r="N30" s="42"/>
-      <c r="O30" s="93"/>
+      <c r="O30" s="94"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="93"/>
+      <c r="A31" s="94"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -11724,10 +11916,10 @@
       <c r="L31" s="42"/>
       <c r="M31" s="42"/>
       <c r="N31" s="42"/>
-      <c r="O31" s="93"/>
+      <c r="O31" s="94"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="93"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -11741,10 +11933,10 @@
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
       <c r="N32" s="42"/>
-      <c r="O32" s="93"/>
+      <c r="O32" s="94"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="93"/>
+      <c r="A33" s="94"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
@@ -11758,58 +11950,58 @@
       <c r="L33" s="42"/>
       <c r="M33" s="42"/>
       <c r="N33" s="42"/>
-      <c r="O33" s="93"/>
+      <c r="O33" s="94"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12796,8 +12988,8 @@
   </sheetPr>
   <dimension ref="B2:P1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12820,26 +13012,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="80" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="83"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="85"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="42"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
@@ -12853,67 +13043,67 @@
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
       <c r="O3" s="38"/>
-      <c r="P3" s="85"/>
+      <c r="P3" s="86"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="85"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="46"/>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="60"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="65"/>
       <c r="K4" s="46"/>
-      <c r="L4" s="102" t="s">
+      <c r="L4" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="60"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="65"/>
       <c r="O4" s="37"/>
-      <c r="P4" s="85"/>
+      <c r="P4" s="86"/>
     </row>
     <row r="5" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="85"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="46"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="46"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="101"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="102"/>
       <c r="O5" s="37"/>
-      <c r="P5" s="85"/>
+      <c r="P5" s="86"/>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="85"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="46"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="62"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="67"/>
       <c r="K6" s="46"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="62"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="67"/>
       <c r="O6" s="37"/>
-      <c r="P6" s="85"/>
+      <c r="P6" s="86"/>
     </row>
     <row r="7" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="85"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="42"/>
       <c r="D7" s="43" t="s">
         <v>0</v>
@@ -12945,10 +13135,10 @@
         <v>31</v>
       </c>
       <c r="O7" s="37"/>
-      <c r="P7" s="85"/>
+      <c r="P7" s="86"/>
     </row>
     <row r="8" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="85"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="42"/>
       <c r="D8" s="40" t="s">
         <v>3</v>
@@ -12982,10 +13172,10 @@
         <v>80</v>
       </c>
       <c r="O8" s="37"/>
-      <c r="P8" s="85"/>
+      <c r="P8" s="86"/>
     </row>
     <row r="9" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="42"/>
       <c r="D9" s="40" t="s">
         <v>4</v>
@@ -13019,10 +13209,10 @@
         <v>150</v>
       </c>
       <c r="O9" s="37"/>
-      <c r="P9" s="85"/>
+      <c r="P9" s="86"/>
     </row>
     <row r="10" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="85"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="42"/>
       <c r="D10" s="40" t="s">
         <v>6</v>
@@ -13056,10 +13246,10 @@
         <v>950</v>
       </c>
       <c r="O10" s="37"/>
-      <c r="P10" s="85"/>
+      <c r="P10" s="86"/>
     </row>
     <row r="11" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="85"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="42"/>
       <c r="D11" s="40" t="s">
         <v>8</v>
@@ -13093,10 +13283,10 @@
         <v>220</v>
       </c>
       <c r="O11" s="37"/>
-      <c r="P11" s="85"/>
+      <c r="P11" s="86"/>
     </row>
     <row r="12" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="42"/>
       <c r="D12" s="40" t="s">
         <v>10</v>
@@ -13114,10 +13304,10 @@
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
       <c r="O12" s="37"/>
-      <c r="P12" s="85"/>
+      <c r="P12" s="86"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="85"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
@@ -13131,10 +13321,10 @@
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
-      <c r="P13" s="85"/>
+      <c r="P13" s="86"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="85"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
@@ -13148,15 +13338,15 @@
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
-      <c r="P14" s="85"/>
+      <c r="P14" s="86"/>
     </row>
     <row r="15" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="85"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="66"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
@@ -13173,10 +13363,10 @@
         <v>31</v>
       </c>
       <c r="O15" s="37"/>
-      <c r="P15" s="85"/>
+      <c r="P15" s="86"/>
     </row>
     <row r="16" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="85"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="42"/>
       <c r="D16" s="44" t="s">
         <v>14</v>
@@ -13203,10 +13393,10 @@
         <v>950</v>
       </c>
       <c r="O16" s="37"/>
-      <c r="P16" s="85"/>
+      <c r="P16" s="86"/>
     </row>
     <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="85"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="42"/>
       <c r="D17" s="44" t="s">
         <v>15</v>
@@ -13233,10 +13423,10 @@
         <v>80</v>
       </c>
       <c r="O17" s="37"/>
-      <c r="P17" s="85"/>
+      <c r="P17" s="86"/>
     </row>
     <row r="18" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="42"/>
       <c r="D18" s="44" t="s">
         <v>16</v>
@@ -13263,10 +13453,10 @@
         <v>220</v>
       </c>
       <c r="O18" s="37"/>
-      <c r="P18" s="85"/>
+      <c r="P18" s="86"/>
     </row>
     <row r="19" spans="2:16" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="85"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="42"/>
       <c r="D19" s="44" t="s">
         <v>17</v>
@@ -13285,10 +13475,10 @@
       <c r="M19" s="46"/>
       <c r="N19" s="46"/>
       <c r="O19" s="46"/>
-      <c r="P19" s="85"/>
+      <c r="P19" s="86"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B20" s="85"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -13302,10 +13492,10 @@
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
-      <c r="P20" s="85"/>
+      <c r="P20" s="86"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B21" s="85"/>
+      <c r="B21" s="86"/>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
@@ -13319,24 +13509,24 @@
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
-      <c r="P21" s="85"/>
+      <c r="P21" s="86"/>
     </row>
     <row r="22" spans="2:16" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="79"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="80"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="27"/>
@@ -14344,5 +14534,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>